--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -706,8 +706,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -738,13 +746,17 @@
         <v/>
       </c>
       <c r="N4" s="8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O4" s="8" t="n">
         <v/>
       </c>
-      <c r="P4" s="8" t="n"/>
-      <c r="Q4" s="8" t="n"/>
+      <c r="P4" s="8" t="inlineStr">
+        <is>
+          <t>46h nghiên cứu cải tiến</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="inlineStr"/>
       <c r="R4" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -768,8 +780,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -800,17 +822,17 @@
         <v/>
       </c>
       <c r="N5" s="8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O5" s="8" t="n">
         <v/>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>Estimate số ngày đi làm trong tháng 8: 16/23 ngày. (1h/ngày)*16 fix bugs</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="n"/>
+          <t>(1h/ngày)*23 fix bugs</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="inlineStr"/>
       <c r="R5" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -858,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="9" t="n">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="8" t="n">
@@ -892,8 +914,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -924,19 +956,19 @@
         <v/>
       </c>
       <c r="N7" s="8" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O7" s="8" t="n">
         <v/>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>"- (4h/ngày)*16 làm task
-- (0,5h/ngày)*16 meeting daily
-- Retro, review, planning: (0,5h/ngày)*16"</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="n"/>
+          <t>"- (4h/ngày)*23 làm task
+- (0,5h/ngày)*23 meeting daily
+- Retro, review, planning: (0,5h/ngày)*23"</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="inlineStr"/>
       <c r="R7" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -984,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>128</v>
+        <v>184</v>
       </c>
       <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="8" t="n">
@@ -1168,8 +1200,18 @@
           <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- DEV: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+** Không tính issue do nguyên nhân enhancement, wishlist, support
+</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1207,10 +1249,10 @@
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="n"/>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án + làm các công việc phát sinh 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="inlineStr"/>
       <c r="R12" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1234,8 +1276,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1273,10 +1323,10 @@
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>~4h/tuần task tích hợp  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="n"/>
+          <t>~4h/tuần nghiên cứu công nghệ  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr"/>
       <c r="R13" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1358,8 +1408,17 @@
           <t>Đảm bảo 100% các tính năng trong phase được giao hoàn thành đúng thời hạn (Tool nhân sự)</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Báo cáo được PM và CBQL confirm
+</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1397,10 +1456,12 @@
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>~2.5h/tuần viết và báo cáo tiến độ cho leader</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="n"/>
+          <t>~1.1h/tuần viết và báo cáo tiến độ cho leader
+~5.5h/ngày ứng dụng công nghệ để làm task  5.5*23=126.5h
+(dự kiến làm 23 ngày trong tháng 8)"</t>
+        </is>
+      </c>
+      <c r="Q15" s="8" t="inlineStr"/>
       <c r="R15" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1619,21 +1680,29 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D20" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1641,7 +1710,7 @@
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I20" s="8" t="inlineStr">
@@ -1651,11 +1720,11 @@
       </c>
       <c r="J20" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K20" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L20" s="8" t="n">
         <v/>
@@ -1664,17 +1733,17 @@
         <v/>
       </c>
       <c r="N20" s="8" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="O20" s="8" t="n">
         <v/>
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
-          <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
-        </is>
-      </c>
-      <c r="Q20" s="8" t="n"/>
+          <t>3h một tuần * 4</t>
+        </is>
+      </c>
+      <c r="Q20" s="8" t="inlineStr"/>
       <c r="R20" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1685,21 +1754,31 @@
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án OnCX/ Smart Routing</t>
         </is>
       </c>
       <c r="D21" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1707,7 +1786,7 @@
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I21" s="8" t="inlineStr">
@@ -1717,11 +1796,11 @@
       </c>
       <c r="J21" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K21" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L21" s="8" t="n">
         <v/>
@@ -1730,17 +1809,17 @@
         <v/>
       </c>
       <c r="N21" s="8" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="O21" s="8" t="n">
         <v/>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
-          <t>3h một tuần * 4</t>
-        </is>
-      </c>
-      <c r="Q21" s="8" t="n"/>
+          <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
+        </is>
+      </c>
+      <c r="Q21" s="8" t="inlineStr"/>
       <c r="R21" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1788,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="9" t="n">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="O22" s="9" t="inlineStr"/>
       <c r="P22" s="8" t="n">
@@ -1822,8 +1901,19 @@
           <t>Đảm bảo 100% các tính năng được hướng dẫn trong OnCX được maintain và hoàn thành 100% các task dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>- 100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg
+- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1854,7 +1944,7 @@
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="O23" s="8" t="n">
         <v/>
@@ -1867,7 +1957,7 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr"/>
       <c r="R23" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -1915,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="O24" s="9" t="inlineStr"/>
       <c r="P24" s="8" t="n">
@@ -2099,8 +2189,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2141,7 +2239,7 @@
           <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
         </is>
       </c>
-      <c r="Q28" s="8" t="n"/>
+      <c r="Q28" s="8" t="inlineStr"/>
       <c r="R28" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2165,8 +2263,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2208,7 +2316,7 @@
 (Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q29" s="8" t="n"/>
+      <c r="Q29" s="8" t="inlineStr"/>
       <c r="R29" s="8" t="inlineStr">
         <is>
           <t>Trống</t>
@@ -2290,8 +2398,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2333,7 +2451,7 @@
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="n"/>
+      <c r="Q31" s="8" t="inlineStr"/>
       <c r="R31" s="8" t="inlineStr">
         <is>
           <t>Trống</t>

--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,27 +693,29 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
       <c r="D4" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E4" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -737,59 +739,69 @@
         </is>
       </c>
       <c r="K4" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
       </c>
       <c r="N4" s="8" t="n">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>46h nghiên cứu cải tiến</t>
-        </is>
-      </c>
-      <c r="Q4" s="8" t="inlineStr"/>
-      <c r="R4" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          <t>(1h/ngày)*23 fix bugs</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống Kê Bug Happy Connect 25/7 - 24/8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E5" s="8" t="inlineStr">
         <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -813,7 +825,7 @@
         </is>
       </c>
       <c r="K5" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L5" s="8" t="n">
         <v/>
@@ -822,22 +834,18 @@
         <v/>
       </c>
       <c r="N5" s="8" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v/>
+        <v>28</v>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t>(1h/ngày)*23 fix bugs</t>
-        </is>
-      </c>
-      <c r="Q5" s="8" t="inlineStr"/>
-      <c r="R5" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          <t>46h nghiên cứu cải tiến</t>
+        </is>
+      </c>
+      <c r="Q5" s="8" t="n"/>
+      <c r="R5" s="8" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="8" t="n">
@@ -874,7 +882,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -882,7 +890,9 @@
       <c r="N6" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O6" s="9" t="inlineStr"/>
+      <c r="O6" s="9" t="n">
+        <v>166</v>
+      </c>
       <c r="P6" s="8" t="n">
         <v/>
       </c>
@@ -950,7 +960,7 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v/>
+        <v>87</v>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
@@ -959,7 +969,7 @@
         <v>115</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v/>
+        <v>138</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
@@ -968,12 +978,24 @@
 - Retro, review, planning: (0,5h/ngày)*23"</t>
         </is>
       </c>
-      <c r="Q7" s="8" t="inlineStr"/>
-      <c r="R7" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Omni Tổng hợp task T8.xlsx : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=110203004276866137534&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="n">
@@ -1010,7 +1032,7 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
@@ -1018,7 +1040,9 @@
       <c r="N8" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O8" s="9" t="inlineStr"/>
+      <c r="O8" s="9" t="n">
+        <v>166</v>
+      </c>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1187,130 +1211,142 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C12" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N12" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O12" s="8" t="n">
+        <v>26</v>
+      </c>
+      <c r="P12" s="8" t="inlineStr">
+        <is>
+          <t>~4h/tuần nghiên cứu công nghệ  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng đề xuất cải tiến  : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/document/d/1-p7vtcSIpbGEA2Yr3uPWK30m9ct4Dyjaz7LwdYjtd18/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R12" s="8" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n"/>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
           <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
         </is>
       </c>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E13" s="8" t="inlineStr">
         <is>
           <t xml:space="preserve">- DEV: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
 ** Không tính issue do nguyên nhân enhancement, wishlist, support
 </t>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>Taiga</t>
         </is>
       </c>
-      <c r="G12" s="8" t="inlineStr">
+      <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
         </is>
       </c>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H13" s="8" t="inlineStr">
         <is>
           <t>%</t>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>=</t>
         </is>
       </c>
-      <c r="J12" s="8" t="inlineStr">
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>100%</t>
         </is>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K13" s="8" t="n">
         <v>80</v>
       </c>
-      <c r="L12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N12" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="O12" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P12" s="8" t="inlineStr">
-        <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án + làm các công việc phát sinh 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr"/>
-      <c r="R12" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n"/>
-      <c r="B13" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C13" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J13" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>20</v>
-      </c>
       <c r="L13" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
@@ -1319,19 +1355,31 @@
         <v>12</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v/>
+        <v>43</v>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>~4h/tuần nghiên cứu công nghệ  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="inlineStr"/>
-      <c r="R13" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án + làm các công việc phát sinh 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng kết quả toolns : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="8" t="n">
@@ -1368,7 +1416,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1376,7 +1424,9 @@
       <c r="N14" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O14" s="9" t="inlineStr"/>
+      <c r="O14" s="9" t="n">
+        <v>149</v>
+      </c>
       <c r="P14" s="8" t="n">
         <v/>
       </c>
@@ -1443,7 +1493,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1452,7 +1502,7 @@
         <v>152</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v/>
+        <v>80</v>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
@@ -1461,12 +1511,24 @@
 (dự kiến làm 23 ngày trong tháng 8)"</t>
         </is>
       </c>
-      <c r="Q15" s="8" t="inlineStr"/>
-      <c r="R15" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve"> bằng chứng dự án toolNS : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="8" t="n">
@@ -1503,7 +1565,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1511,7 +1573,9 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="inlineStr"/>
+      <c r="O16" s="9" t="n">
+        <v>149</v>
+      </c>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1727,7 +1791,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M20" s="8" t="n">
         <v/>
@@ -1736,19 +1800,15 @@
         <v>12</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v/>
+        <v>15</v>
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
           <t>3h một tuần * 4</t>
         </is>
       </c>
-      <c r="Q20" s="8" t="inlineStr"/>
-      <c r="R20" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q20" s="8" t="n"/>
+      <c r="R20" s="8" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n"/>
@@ -1803,7 +1863,7 @@
         <v>80</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M21" s="8" t="n">
         <v/>
@@ -1812,19 +1872,31 @@
         <v>19</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
         </is>
       </c>
-      <c r="Q21" s="8" t="inlineStr"/>
-      <c r="R21" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng smart routing tháng 8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="8" t="n">
@@ -1861,7 +1933,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -1869,7 +1941,9 @@
       <c r="N22" s="9" t="n">
         <v>144</v>
       </c>
-      <c r="O22" s="9" t="inlineStr"/>
+      <c r="O22" s="9" t="n">
+        <v>156</v>
+      </c>
       <c r="P22" s="8" t="n">
         <v/>
       </c>
@@ -1938,7 +2012,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v/>
+        <v>50</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
@@ -1947,7 +2021,7 @@
         <v>113</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
+        <v>141</v>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
@@ -1957,12 +2031,24 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="inlineStr"/>
-      <c r="R23" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng smart routing t8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="8" t="n">
@@ -1999,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -2007,7 +2093,9 @@
       <c r="N24" s="9" t="n">
         <v>144</v>
       </c>
-      <c r="O24" s="9" t="inlineStr"/>
+      <c r="O24" s="9" t="n">
+        <v>156</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2176,27 +2264,29 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
         <is>
-          <t>CBQL/PM/SA confirm</t>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
         </is>
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>Mail</t>
+          <t>Taiga</t>
         </is>
       </c>
       <c r="G28" s="8" t="inlineStr">
@@ -2206,7 +2296,7 @@
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I28" s="8" t="inlineStr">
@@ -2216,63 +2306,74 @@
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K28" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v/>
+        <v>17</v>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="inlineStr"/>
-      <c r="R28" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
+(Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
       <c r="E29" s="8" t="inlineStr">
         <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+          <t>CBQL/PM/SA confirm</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>Taiga</t>
+          <t>Mail</t>
         </is>
       </c>
       <c r="G29" s="8" t="inlineStr">
@@ -2282,7 +2383,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
@@ -2292,11 +2393,11 @@
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K29" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L29" s="8" t="n">
         <v/>
@@ -2305,23 +2406,18 @@
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O29" s="8" t="n">
         <v/>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
-(Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
-        </is>
-      </c>
-      <c r="Q29" s="8" t="inlineStr"/>
-      <c r="R29" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+          <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
+        </is>
+      </c>
+      <c r="Q29" s="8" t="n"/>
+      <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="8" t="n">
@@ -2358,15 +2454,17 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="9" t="n">
-        <v>116</v>
-      </c>
-      <c r="O30" s="9" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="O30" s="9" t="n">
+        <v>124</v>
+      </c>
       <c r="P30" s="8" t="n">
         <v/>
       </c>
@@ -2434,29 +2532,41 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v/>
+        <v>107</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>Dành 5,5 tiếng/ngày * 16.5 làm task.
+          <t>Dành 6,5 tiếng/ngày * 16.5 làm task.
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="inlineStr"/>
-      <c r="R31" s="8" t="inlineStr">
-        <is>
-          <t>Trống</t>
-        </is>
-      </c>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="8" t="n">
@@ -2493,15 +2603,17 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>116</v>
-      </c>
-      <c r="O32" s="9" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>124</v>
+      </c>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2512,16 +2624,529 @@
         <v/>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Phạm Trọng Sáng</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>sangpt23</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>SVCNTS</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Team FE</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L35" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M35" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N35" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P35" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R35" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~4h/tuần nghiên cứu và ứng dụng một số công nghệ khác để phát triển các chức năng </t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="n"/>
+      <c r="R36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5.
+UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J37" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
+        <is>
+          <t>~4,5h/ngày làm task và fix bug 
+(dự kiến làm 23 ngày trong tháng 8)</t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng KPI 2 Thán 8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="O38" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="P38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: Có bằng chứng dev intergration test/ unittest ở mt dev. Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OKR T8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="O40" s="9" t="n">
+        <v>17</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R40" s="8" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -520,15 +520,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
+    <col width="35" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="30" customWidth="1" min="16" max="16"/>
-    <col width="30" customWidth="1" min="17" max="17"/>
-    <col width="30" customWidth="1" min="18" max="18"/>
+    <col width="35" customWidth="1" min="16" max="16"/>
+    <col width="35" customWidth="1" min="17" max="17"/>
+    <col width="35" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -887,12 +887,8 @@
       <c r="M6" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O6" s="9" t="n">
-        <v>166</v>
-      </c>
+      <c r="N6" s="9" t="inlineStr"/>
+      <c r="O6" s="9" t="inlineStr"/>
       <c r="P6" s="8" t="n">
         <v/>
       </c>
@@ -1258,7 +1254,7 @@
         <v>20</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
@@ -1346,7 +1342,7 @@
         <v>80</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
@@ -1374,7 +1370,7 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -1416,17 +1412,13 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O14" s="9" t="n">
-        <v>149</v>
-      </c>
+      <c r="N14" s="9" t="inlineStr"/>
+      <c r="O14" s="9" t="inlineStr"/>
       <c r="P14" s="8" t="n">
         <v/>
       </c>
@@ -1523,7 +1515,7 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/document/d/1t3zYTlbiKrEsvZZEomBpQpPUaNqpr4Z4V8palY_bUkQ/edit?usp=sharing
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -1938,12 +1930,8 @@
       <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="9" t="n">
-        <v>144</v>
-      </c>
-      <c r="O22" s="9" t="n">
-        <v>156</v>
-      </c>
+      <c r="N22" s="9" t="inlineStr"/>
+      <c r="O22" s="9" t="inlineStr"/>
       <c r="P22" s="8" t="n">
         <v/>
       </c>
@@ -2012,7 +2000,7 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
@@ -2033,6 +2021,19 @@
       </c>
       <c r="Q23" s="8" t="inlineStr">
         <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng nhận bàn giao + transfer Oncx : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/1HiPLri35eGkI33QMXCcNHcoJkz1WADU8/view?usp=sharing
+</t>
+          </r>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
@@ -2043,7 +2044,7 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1ULC7FeeVPrxMRG06nplzyM1wziQG5HqwYrcLr_Sa1oA/edit?usp=sharing
 </t>
           </r>
         </is>
@@ -2085,7 +2086,7 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
@@ -2400,7 +2401,7 @@
         <v>20</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
@@ -2409,7 +2410,7 @@
         <v>8</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
@@ -2459,12 +2460,8 @@
       <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="O30" s="9" t="n">
-        <v>124</v>
-      </c>
+      <c r="N30" s="9" t="inlineStr"/>
+      <c r="O30" s="9" t="inlineStr"/>
       <c r="P30" s="8" t="n">
         <v/>
       </c>
@@ -2612,7 +2609,7 @@
         <v>132</v>
       </c>
       <c r="O32" s="9" t="n">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="P32" s="8" t="n">
         <v/>
@@ -2924,7 +2921,7 @@
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng KPI 2 Thán 8 : </t>
+            <t xml:space="preserve">Bằng chứng Dialo : </t>
           </r>
           <r>
             <rPr>
@@ -2933,140 +2930,11 @@
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
 </t>
           </r>
-        </is>
-      </c>
-      <c r="R37" s="8" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="n">
-        <v>143</v>
-      </c>
-      <c r="O38" s="9" t="n">
-        <v>17</v>
-      </c>
-      <c r="P38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R38" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: Có bằng chứng dev intergration test/ unittest ở mt dev. Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G39" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H39" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I39" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J39" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L39" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N39" s="8" t="n">
-        <v>104</v>
-      </c>
-      <c r="O39" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="P39" s="8" t="n"/>
-      <c r="Q39" s="8" t="inlineStr">
-        <is>
           <r>
             <rPr>
               <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
-            <t xml:space="preserve">Bằng chứng OKR T8 : </t>
+            <t xml:space="preserve">Bằng chứng HappyConnect : </t>
           </r>
           <r>
             <rPr>
@@ -3077,6 +2945,157 @@
           </r>
         </is>
       </c>
+      <c r="R37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="inlineStr"/>
+      <c r="O38" s="9" t="inlineStr"/>
+      <c r="P38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: Có bằng chứng dev intergration test/ unittest ở mt dev. Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OKR T8 Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OKR T8 Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R39" s="8" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3114,7 +3133,7 @@
         <v>100</v>
       </c>
       <c r="L40" s="9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M40" s="9" t="n">
         <v>0</v>
@@ -3123,7 +3142,7 @@
         <v>143</v>
       </c>
       <c r="O40" s="9" t="n">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="P40" s="8" t="n">
         <v/>

--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -768,7 +768,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
 </t>
@@ -984,7 +984,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=110203004276866137534&amp;rtpof=true&amp;sd=true
 </t>
@@ -1280,7 +1280,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/document/d/1-p7vtcSIpbGEA2Yr3uPWK30m9ct4Dyjaz7LwdYjtd18/edit?usp=sharing
 </t>
@@ -1368,7 +1368,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
@@ -1513,7 +1513,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
 </t>
@@ -1881,7 +1881,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
 </t>
@@ -2029,7 +2029,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://drive.google.com/file/d/1HiPLri35eGkI33QMXCcNHcoJkz1WADU8/view?usp=sharing
 </t>
@@ -2042,7 +2042,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1ULC7FeeVPrxMRG06nplzyM1wziQG5HqwYrcLr_Sa1oA/edit?usp=sharing
 </t>
@@ -2341,7 +2341,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
 </t>
@@ -2556,7 +2556,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
 </t>
@@ -2925,7 +2925,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
 </t>
@@ -2938,7 +2938,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
@@ -3076,7 +3076,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
 </t>
@@ -3089,7 +3089,7 @@
           </r>
           <r>
             <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
             </rPr>
             <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
 </t>

--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,18 +706,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E4" s="8" t="inlineStr">
-        <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
-        </is>
-      </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E4" s="8" t="n"/>
+      <c r="F4" s="8" t="n"/>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -742,39 +732,23 @@
         <v>80</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
       </c>
       <c r="N4" s="8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>(1h/ngày)*23 fix bugs</t>
-        </is>
-      </c>
-      <c r="Q4" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Thống Kê Bug Happy Connect 25/7 - 24/8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>Estimate số ngày đi làm trong tháng 8: 16/23 ngày. (1h/ngày)*16 fix bugs</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="n"/>
       <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
@@ -794,16 +768,8 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E5" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+      <c r="E5" s="8" t="n"/>
+      <c r="F5" s="8" t="n"/>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -834,16 +800,12 @@
         <v/>
       </c>
       <c r="N5" s="8" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v>28</v>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
-          <t>46h nghiên cứu cải tiến</t>
-        </is>
-      </c>
+        <v/>
+      </c>
+      <c r="P5" s="8" t="n"/>
       <c r="Q5" s="8" t="n"/>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
@@ -882,7 +844,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -920,18 +882,8 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E7" s="8" t="inlineStr">
-        <is>
-          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg"</t>
-        </is>
-      </c>
-      <c r="F7" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E7" s="8" t="n"/>
+      <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -956,41 +908,25 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v>87</v>
+        <v/>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
       </c>
       <c r="N7" s="8" t="n">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v>138</v>
+        <v/>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>"- (4h/ngày)*23 làm task
-- (0,5h/ngày)*23 meeting daily
-- Retro, review, planning: (0,5h/ngày)*23"</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Omni Tổng hợp task T8.xlsx : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=110203004276866137534&amp;rtpof=true&amp;sd=true
-</t>
-          </r>
-        </is>
-      </c>
+          <t>"- (4h/ngày)*16 làm task
+- (0,5h/ngày)*16 meeting daily
+- Retro, review, planning: (0,5h/ngày)*16"</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="n"/>
       <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1028,17 +964,15 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>184</v>
-      </c>
-      <c r="O8" s="9" t="n">
-        <v>166</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="O8" s="9" t="inlineStr"/>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1207,29 +1141,21 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1251,10 +1177,10 @@
         </is>
       </c>
       <c r="K12" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
@@ -1263,61 +1189,35 @@
         <v>20</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v>26</v>
+        <v/>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>~4h/tuần nghiên cứu công nghệ  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng đề xuất cải tiến  : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/document/d/1-p7vtcSIpbGEA2Yr3uPWK30m9ct4Dyjaz7LwdYjtd18/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="n"/>
       <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo, innovation</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm  với số bug được log trongTools nhân sự nghiên cứu dự thi sáng tạo</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D13" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
-        </is>
-      </c>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">- DEV: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-** Không tính issue do nguyên nhân enhancement, wishlist, support
-</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="8" t="n"/>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1339,10 +1239,10 @@
         </is>
       </c>
       <c r="K13" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v>80</v>
+        <v/>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
@@ -1351,30 +1251,14 @@
         <v>12</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v>43</v>
+        <v/>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án + làm các công việc phát sinh 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">bằng chứng kết quả toolns : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>~4h/tuần task tích hợp  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="n"/>
       <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1412,7 +1296,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1450,17 +1334,8 @@
           <t>Đảm bảo 100% các tính năng trong phase được giao hoàn thành đúng thời hạn (Tool nhân sự)</t>
         </is>
       </c>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Báo cáo được PM và CBQL confirm
-</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+      <c r="E15" s="8" t="n"/>
+      <c r="F15" s="8" t="n"/>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1485,7 +1360,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1494,32 +1369,14 @@
         <v>152</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v>80</v>
+        <v/>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>~1.1h/tuần viết và báo cáo tiến độ cho leader
-~5.5h/ngày ứng dụng công nghệ để làm task  5.5*23=126.5h
-(dự kiến làm 23 ngày trong tháng 8)"</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve"> bằng chứng dự án toolNS : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>~2.5h/tuần viết và báo cáo tiến độ cho leader</t>
+        </is>
+      </c>
+      <c r="Q15" s="8" t="n"/>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1557,7 +1414,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1565,9 +1422,7 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="n">
-        <v>149</v>
-      </c>
+      <c r="O16" s="9" t="inlineStr"/>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1749,16 +1604,8 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="F20" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1783,7 +1630,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M20" s="8" t="n">
         <v/>
@@ -1792,7 +1639,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v>15</v>
+        <v/>
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
@@ -1819,18 +1666,8 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="8" t="inlineStr">
-        <is>
-          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F21" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E21" s="8" t="n"/>
+      <c r="F21" s="8" t="n"/>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1855,7 +1692,7 @@
         <v>80</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M21" s="8" t="n">
         <v/>
@@ -1864,30 +1701,14 @@
         <v>19</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
         </is>
       </c>
-      <c r="Q21" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng smart routing tháng 8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q21" s="8" t="n"/>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1925,7 +1746,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -1963,19 +1784,8 @@
           <t>Đảm bảo 100% các tính năng được hướng dẫn trong OnCX được maintain và hoàn thành 100% các task dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E23" s="8" t="inlineStr">
-        <is>
-          <t>- 100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg
-- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E23" s="8" t="n"/>
+      <c r="F23" s="8" t="n"/>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2000,16 +1810,16 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v>93</v>
+        <v/>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v>141</v>
+        <v/>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
@@ -2019,36 +1829,7 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng nhận bàn giao + transfer Oncx : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://drive.google.com/file/d/1HiPLri35eGkI33QMXCcNHcoJkz1WADU8/view?usp=sharing
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng smart routing t8 : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1ULC7FeeVPrxMRG06nplzyM1wziQG5HqwYrcLr_Sa1oA/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q23" s="8" t="n"/>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2086,17 +1867,15 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>144</v>
-      </c>
-      <c r="O24" s="9" t="n">
-        <v>156</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="O24" s="9" t="inlineStr"/>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2265,31 +2044,21 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E28" s="8" t="inlineStr">
-        <is>
-          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
-- UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E28" s="8" t="n"/>
+      <c r="F28" s="8" t="n"/>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2297,7 +2066,7 @@
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>Đạt/Không đạt</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I28" s="8" t="inlineStr">
@@ -2307,76 +2076,51 @@
       </c>
       <c r="J28" s="8" t="inlineStr">
         <is>
-          <t>Đạt</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="K28" s="8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
       </c>
       <c r="N28" s="8" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v>17</v>
+        <v/>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
-          <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
-(Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
-        </is>
-      </c>
-      <c r="Q28" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+          <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
+        </is>
+      </c>
+      <c r="Q28" s="8" t="n"/>
       <c r="R28" s="8" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n"/>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
         <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Smart Rotuing</t>
         </is>
       </c>
       <c r="D29" s="8" t="inlineStr">
         <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E29" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2384,7 +2128,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>Đạt/Không đạt</t>
         </is>
       </c>
       <c r="I29" s="8" t="inlineStr">
@@ -2394,27 +2138,28 @@
       </c>
       <c r="J29" s="8" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>Đạt</t>
         </is>
       </c>
       <c r="K29" s="8" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
       </c>
       <c r="N29" s="8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v>8</v>
+        <v/>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
-          <t>Dành 2 tiếng mỗi tuần * 4 để nghiên cứu và cải tiến.</t>
+          <t>Dành 1 tiếng/ngày * 16.5 fix bugs.
+(Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
       <c r="Q29" s="8" t="n"/>
@@ -2455,7 +2200,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2493,18 +2238,8 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E31" s="8" t="inlineStr">
-        <is>
-          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
-- Có bằng chứng dev intergration test/ unittest ở mt dev
-- Tester test pass các US trên mt stg"</t>
-        </is>
-      </c>
-      <c r="F31" s="8" t="inlineStr">
-        <is>
-          <t>Taiga</t>
-        </is>
-      </c>
+      <c r="E31" s="8" t="n"/>
+      <c r="F31" s="8" t="n"/>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2529,40 +2264,24 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v>100</v>
+        <v/>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v>107</v>
+        <v/>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>Dành 6,5 tiếng/ngày * 16.5 làm task.
+          <t>Dành 5,5 tiếng/ngày * 16.5 làm task.
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
-</t>
-          </r>
-        </is>
-      </c>
+      <c r="Q31" s="8" t="n"/>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2600,17 +2319,15 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>132</v>
-      </c>
-      <c r="O32" s="9" t="n">
-        <v>132</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O32" s="9" t="inlineStr"/>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2621,551 +2338,16 @@
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="n"/>
-      <c r="B33" s="2" t="n"/>
-      <c r="C33" s="2" t="n"/>
-      <c r="D33" s="2" t="n"/>
-      <c r="E33" s="2" t="n"/>
-      <c r="F33" s="2" t="n"/>
-      <c r="G33" s="2" t="n"/>
-      <c r="H33" s="2" t="n"/>
-      <c r="I33" s="2" t="n"/>
-      <c r="J33" s="2" t="n"/>
-      <c r="K33" s="2" t="n"/>
-      <c r="L33" s="2" t="n"/>
-      <c r="M33" s="2" t="n"/>
-      <c r="N33" s="2" t="n"/>
-      <c r="O33" s="2" t="n"/>
-      <c r="P33" s="2" t="n"/>
-      <c r="Q33" s="2" t="n"/>
-      <c r="R33" s="2" t="n"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>Phạm Trọng Sáng</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>sangpt23</t>
-        </is>
-      </c>
-      <c r="D34" s="3" t="inlineStr">
-        <is>
-          <t>SVCNTS</t>
-        </is>
-      </c>
-      <c r="E34" s="3" t="inlineStr">
-        <is>
-          <t>Team FE</t>
-        </is>
-      </c>
-      <c r="F34" s="2" t="n"/>
-      <c r="G34" s="2" t="n"/>
-      <c r="H34" s="2" t="n"/>
-      <c r="I34" s="2" t="n"/>
-      <c r="J34" s="2" t="n"/>
-      <c r="K34" s="2" t="n"/>
-      <c r="L34" s="2" t="n"/>
-      <c r="M34" s="2" t="n"/>
-      <c r="N34" s="2" t="n"/>
-      <c r="O34" s="2" t="n"/>
-      <c r="P34" s="2" t="n"/>
-      <c r="Q34" s="2" t="n"/>
-      <c r="R34" s="2" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>Loại</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>KR phòng</t>
-        </is>
-      </c>
-      <c r="C35" s="5" t="inlineStr">
-        <is>
-          <t>KR team</t>
-        </is>
-      </c>
-      <c r="D35" s="5" t="inlineStr">
-        <is>
-          <t>KR cá nhân</t>
-        </is>
-      </c>
-      <c r="E35" s="5" t="inlineStr">
-        <is>
-          <t>Công thức tính</t>
-        </is>
-      </c>
-      <c r="F35" s="5" t="inlineStr">
-        <is>
-          <t>Nguồn dữ liệu</t>
-        </is>
-      </c>
-      <c r="G35" s="5" t="inlineStr">
-        <is>
-          <t>Định kỳ tính</t>
-        </is>
-      </c>
-      <c r="H35" s="5" t="inlineStr">
-        <is>
-          <t>Đơn vị tính</t>
-        </is>
-      </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>Điều kiện</t>
-        </is>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>Norm</t>
-        </is>
-      </c>
-      <c r="K35" s="6" t="inlineStr">
-        <is>
-          <t>% Trọng số chỉ tiêu</t>
-        </is>
-      </c>
-      <c r="L35" s="6" t="inlineStr">
-        <is>
-          <t>Kết quả</t>
-        </is>
-      </c>
-      <c r="M35" s="6" t="inlineStr">
-        <is>
-          <t>Tỷ lệ</t>
-        </is>
-      </c>
-      <c r="N35" s="6" t="inlineStr">
-        <is>
-          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
-        </is>
-      </c>
-      <c r="O35" s="4" t="inlineStr">
-        <is>
-          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
-        </is>
-      </c>
-      <c r="P35" s="6" t="inlineStr">
-        <is>
-          <t>Note dự kiến</t>
-        </is>
-      </c>
-      <c r="Q35" s="4" t="inlineStr">
-        <is>
-          <t>Note bằng chứng thực tế</t>
-        </is>
-      </c>
-      <c r="R35" s="7" t="inlineStr">
-        <is>
-          <t>QA</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>kpi</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
-        </is>
-      </c>
-      <c r="D36" s="8" t="inlineStr">
-        <is>
-          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
-        </is>
-      </c>
-      <c r="E36" s="8" t="inlineStr">
-        <is>
-          <t>CBQL/PM/SA confirm</t>
-        </is>
-      </c>
-      <c r="F36" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G36" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H36" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I36" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J36" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>20</v>
-      </c>
-      <c r="L36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="M36" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N36" s="8" t="n">
-        <v>16</v>
-      </c>
-      <c r="O36" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">~4h/tuần nghiên cứu và ứng dụng một số công nghệ khác để phát triển các chức năng </t>
-        </is>
-      </c>
-      <c r="Q36" s="8" t="n"/>
-      <c r="R36" s="8" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n"/>
-      <c r="B37" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
-        </is>
-      </c>
-      <c r="C37" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
-        </is>
-      </c>
-      <c r="D37" s="8" t="inlineStr">
-        <is>
-          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
-        </is>
-      </c>
-      <c r="E37" s="8" t="inlineStr">
-        <is>
-          <t>STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5.
-UAT: critical/important issue &lt;= 1
-** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G37" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H37" s="8" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="I37" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J37" s="8" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>80</v>
-      </c>
-      <c r="L37" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="M37" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N37" s="8" t="n">
-        <v>23</v>
-      </c>
-      <c r="O37" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P37" s="8" t="inlineStr">
-        <is>
-          <t>~4,5h/ngày làm task và fix bug 
-(dự kiến làm 23 ngày trong tháng 8)</t>
-        </is>
-      </c>
-      <c r="Q37" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng HappyConnect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R37" s="8" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L38" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="M38" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="9" t="inlineStr"/>
-      <c r="O38" s="9" t="inlineStr"/>
-      <c r="P38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q38" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R38" s="8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="8" t="inlineStr">
-        <is>
-          <t>okr</t>
-        </is>
-      </c>
-      <c r="B39" s="8" t="inlineStr">
-        <is>
-          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
-        </is>
-      </c>
-      <c r="C39" s="8" t="inlineStr">
-        <is>
-          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
-        </is>
-      </c>
-      <c r="D39" s="8" t="inlineStr">
-        <is>
-          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
-        </is>
-      </c>
-      <c r="E39" s="8" t="inlineStr">
-        <is>
-          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: Có bằng chứng dev intergration test/ unittest ở mt dev. Tester test pass các US trên mt stg</t>
-        </is>
-      </c>
-      <c r="F39" s="8" t="inlineStr">
-        <is>
-          <t>Mail</t>
-        </is>
-      </c>
-      <c r="G39" s="8" t="inlineStr">
-        <is>
-          <t>Tháng</t>
-        </is>
-      </c>
-      <c r="H39" s="8" t="inlineStr">
-        <is>
-          <t>Đạt/Không đạt</t>
-        </is>
-      </c>
-      <c r="I39" s="8" t="inlineStr">
-        <is>
-          <t>=</t>
-        </is>
-      </c>
-      <c r="J39" s="8" t="inlineStr">
-        <is>
-          <t>Đạt</t>
-        </is>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>100</v>
-      </c>
-      <c r="L39" s="8" t="n">
-        <v>50</v>
-      </c>
-      <c r="M39" s="8" t="n">
-        <v/>
-      </c>
-      <c r="N39" s="8" t="n">
-        <v>104</v>
-      </c>
-      <c r="O39" s="8" t="n">
-        <v>41</v>
-      </c>
-      <c r="P39" s="8" t="n"/>
-      <c r="Q39" s="8" t="inlineStr">
-        <is>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OKR T8 Happy Connect : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
-</t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">Bằng chứng OKR T8 Dialo : </t>
-          </r>
-          <r>
-            <rPr>
-              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
-            </rPr>
-            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
-</t>
-          </r>
-        </is>
-      </c>
-      <c r="R39" s="8" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="B40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="C40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="D40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="E40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="F40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="G40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="H40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="I40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="J40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>100</v>
-      </c>
-      <c r="L40" s="9" t="n">
-        <v>50</v>
-      </c>
-      <c r="M40" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="9" t="n">
-        <v>143</v>
-      </c>
-      <c r="O40" s="9" t="n">
-        <v>43</v>
-      </c>
-      <c r="P40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="Q40" s="8" t="n">
-        <v/>
-      </c>
-      <c r="R40" s="8" t="n">
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="9">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/kpiExcelSheet/nhóm SVCNTS.xlsx
+++ b/kpiExcelSheet/nhóm SVCNTS.xlsx
@@ -511,7 +511,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -706,8 +706,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E4" s="8" t="n"/>
-      <c r="F4" s="8" t="n"/>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -732,23 +742,39 @@
         <v>80</v>
       </c>
       <c r="L4" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M4" s="8" t="n">
         <v/>
       </c>
       <c r="N4" s="8" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O4" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P4" s="8" t="inlineStr">
         <is>
-          <t>Estimate số ngày đi làm trong tháng 8: 16/23 ngày. (1h/ngày)*16 fix bugs</t>
-        </is>
-      </c>
-      <c r="Q4" s="8" t="n"/>
+          <t>(1h/ngày)*23 fix bugs</t>
+        </is>
+      </c>
+      <c r="Q4" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Thống Kê Bug Happy Connect 25/7 - 24/8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1_tnT-wl7XPpycFYY5bSZyXZgFFMUZA8BvmnRSb4d8oI/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R4" s="8" t="inlineStr"/>
     </row>
     <row r="5">
@@ -768,8 +794,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E5" s="8" t="n"/>
-      <c r="F5" s="8" t="n"/>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -800,12 +834,16 @@
         <v/>
       </c>
       <c r="N5" s="8" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="O5" s="8" t="n">
-        <v/>
-      </c>
-      <c r="P5" s="8" t="n"/>
+        <v>28</v>
+      </c>
+      <c r="P5" s="8" t="inlineStr">
+        <is>
+          <t>46h nghiên cứu cải tiến</t>
+        </is>
+      </c>
       <c r="Q5" s="8" t="n"/>
       <c r="R5" s="8" t="inlineStr"/>
     </row>
@@ -844,7 +882,7 @@
         <v>100</v>
       </c>
       <c r="L6" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M6" s="9" t="n">
         <v>0</v>
@@ -882,8 +920,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án PoolIP</t>
         </is>
       </c>
-      <c r="E7" s="8" t="n"/>
-      <c r="F7" s="8" t="n"/>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -908,25 +956,41 @@
         <v>100</v>
       </c>
       <c r="L7" s="8" t="n">
-        <v/>
+        <v>87</v>
       </c>
       <c r="M7" s="8" t="n">
         <v/>
       </c>
       <c r="N7" s="8" t="n">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="O7" s="8" t="n">
-        <v/>
+        <v>138</v>
       </c>
       <c r="P7" s="8" t="inlineStr">
         <is>
-          <t>"- (4h/ngày)*16 làm task
-- (0,5h/ngày)*16 meeting daily
-- Retro, review, planning: (0,5h/ngày)*16"</t>
-        </is>
-      </c>
-      <c r="Q7" s="8" t="n"/>
+          <t>"- (4h/ngày)*23 làm task
+- (0,5h/ngày)*23 meeting daily
+- Retro, review, planning: (0,5h/ngày)*23"</t>
+        </is>
+      </c>
+      <c r="Q7" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Omni Tổng hợp task T8.xlsx : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/169S8Tj_QKcR8cMRlgrF2b2gnVkYBRcyL/edit?usp=sharing&amp;ouid=110203004276866137534&amp;rtpof=true&amp;sd=true
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R7" s="8" t="inlineStr"/>
     </row>
     <row r="8">
@@ -964,15 +1028,17 @@
         <v>100</v>
       </c>
       <c r="L8" s="9" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="9" t="n">
-        <v>128</v>
-      </c>
-      <c r="O8" s="9" t="inlineStr"/>
+        <v>184</v>
+      </c>
+      <c r="O8" s="9" t="n">
+        <v>166</v>
+      </c>
       <c r="P8" s="8" t="n">
         <v/>
       </c>
@@ -1154,8 +1220,18 @@
           <t>Trên môi trường dev Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5</t>
         </is>
       </c>
-      <c r="E12" s="8" t="n"/>
-      <c r="F12" s="8" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- DEV: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+** Không tính issue do nguyên nhân enhancement, wishlist, support
+</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G12" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1180,23 +1256,39 @@
         <v>80</v>
       </c>
       <c r="L12" s="8" t="n">
-        <v/>
+        <v>80</v>
       </c>
       <c r="M12" s="8" t="n">
         <v/>
       </c>
       <c r="N12" s="8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="O12" s="8" t="n">
-        <v/>
+        <v>43</v>
       </c>
       <c r="P12" s="8" t="inlineStr">
         <is>
-          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án 3*4=12h</t>
-        </is>
-      </c>
-      <c r="Q12" s="8" t="n"/>
+          <t>~3h/tuần review và báo cáo chất lượng công việc cho mentor, leader và team dự án + làm các công việc phát sinh 3*4=12h</t>
+        </is>
+      </c>
+      <c r="Q12" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng kết quả toolns : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R12" s="8" t="inlineStr"/>
     </row>
     <row r="13">
@@ -1216,8 +1308,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E13" s="8" t="n"/>
-      <c r="F13" s="8" t="n"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G13" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1242,23 +1342,39 @@
         <v>20</v>
       </c>
       <c r="L13" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M13" s="8" t="n">
         <v/>
       </c>
       <c r="N13" s="8" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O13" s="8" t="n">
-        <v/>
+        <v>26</v>
       </c>
       <c r="P13" s="8" t="inlineStr">
         <is>
-          <t>~4h/tuần task tích hợp  4*5=20h</t>
-        </is>
-      </c>
-      <c r="Q13" s="8" t="n"/>
+          <t>~4h/tuần nghiên cứu công nghệ  4*5=20h</t>
+        </is>
+      </c>
+      <c r="Q13" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">bằng chứng đề xuất cải tiến  : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/document/d/1-p7vtcSIpbGEA2Yr3uPWK30m9ct4Dyjaz7LwdYjtd18/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R13" s="8" t="inlineStr"/>
     </row>
     <row r="14">
@@ -1296,7 +1412,7 @@
         <v>100</v>
       </c>
       <c r="L14" s="9" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="M14" s="9" t="n">
         <v>0</v>
@@ -1334,8 +1450,17 @@
           <t>Đảm bảo 100% các tính năng trong phase được giao hoàn thành đúng thời hạn (Tool nhân sự)</t>
         </is>
       </c>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Báo cáo được PM và CBQL confirm
+</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G15" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1360,7 +1485,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M15" s="8" t="n">
         <v/>
@@ -1369,14 +1494,32 @@
         <v>152</v>
       </c>
       <c r="O15" s="8" t="n">
-        <v/>
+        <v>80</v>
       </c>
       <c r="P15" s="8" t="inlineStr">
         <is>
-          <t>~2.5h/tuần viết và báo cáo tiến độ cho leader</t>
-        </is>
-      </c>
-      <c r="Q15" s="8" t="n"/>
+          <t>~1.1h/tuần viết và báo cáo tiến độ cho leader
+~5.5h/ngày ứng dụng công nghệ để làm task  5.5*23=126.5h
+(dự kiến làm 23 ngày trong tháng 8)"</t>
+        </is>
+      </c>
+      <c r="Q15" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve"> bằng chứng dự án toolNS : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1RciL3oYclasaPi_8h_MtVzU9yIdh5q2fYoOSoPc1qmo/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R15" s="8" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1414,7 +1557,7 @@
         <v>100</v>
       </c>
       <c r="L16" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M16" s="9" t="n">
         <v>0</v>
@@ -1422,7 +1565,9 @@
       <c r="N16" s="9" t="n">
         <v>184</v>
       </c>
-      <c r="O16" s="9" t="inlineStr"/>
+      <c r="O16" s="9" t="n">
+        <v>149</v>
+      </c>
       <c r="P16" s="8" t="n">
         <v/>
       </c>
@@ -1604,8 +1749,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E20" s="8" t="n"/>
-      <c r="F20" s="8" t="n"/>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G20" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1630,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="L20" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M20" s="8" t="n">
         <v/>
@@ -1639,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="O20" s="8" t="n">
-        <v/>
+        <v>15</v>
       </c>
       <c r="P20" s="8" t="inlineStr">
         <is>
@@ -1666,8 +1819,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E21" s="8" t="n"/>
-      <c r="F21" s="8" t="n"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G21" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1692,7 +1855,7 @@
         <v>80</v>
       </c>
       <c r="L21" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M21" s="8" t="n">
         <v/>
@@ -1701,14 +1864,30 @@
         <v>19</v>
       </c>
       <c r="O21" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="P21" s="8" t="inlineStr">
         <is>
           <t>Thời gian check - fix bugs: (1h/ngày) * 19</t>
         </is>
       </c>
-      <c r="Q21" s="8" t="n"/>
+      <c r="Q21" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng smart routing tháng 8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R21" s="8" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1746,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="L22" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="9" t="n">
         <v>0</v>
@@ -1784,8 +1963,19 @@
           <t>Đảm bảo 100% các tính năng được hướng dẫn trong OnCX được maintain và hoàn thành 100% các task dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E23" s="8" t="n"/>
-      <c r="F23" s="8" t="n"/>
+      <c r="E23" s="8" t="inlineStr">
+        <is>
+          <t>- 100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg
+- Hoàn thành các module bàn giao core Oncx khi được SA confirm</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G23" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -1810,16 +2000,16 @@
         <v>100</v>
       </c>
       <c r="L23" s="8" t="n">
-        <v/>
+        <v>93</v>
       </c>
       <c r="M23" s="8" t="n">
         <v/>
       </c>
       <c r="N23" s="8" t="n">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="O23" s="8" t="n">
-        <v/>
+        <v>141</v>
       </c>
       <c r="P23" s="8" t="inlineStr">
         <is>
@@ -1829,7 +2019,36 @@
 - Dự tính đi làm 19/23 ngày</t>
         </is>
       </c>
-      <c r="Q23" s="8" t="n"/>
+      <c r="Q23" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng nhận bàn giao + transfer Oncx : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://drive.google.com/file/d/1HiPLri35eGkI33QMXCcNHcoJkz1WADU8/view?usp=sharing
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng smart routing t8 : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1ULC7FeeVPrxMRG06nplzyM1wziQG5HqwYrcLr_Sa1oA/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R23" s="8" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1867,15 +2086,17 @@
         <v>100</v>
       </c>
       <c r="L24" s="9" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N24" s="9" t="n">
-        <v>175</v>
-      </c>
-      <c r="O24" s="9" t="inlineStr"/>
+        <v>144</v>
+      </c>
+      <c r="O24" s="9" t="n">
+        <v>156</v>
+      </c>
       <c r="P24" s="8" t="n">
         <v/>
       </c>
@@ -2057,8 +2278,16 @@
           <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
         </is>
       </c>
-      <c r="E28" s="8" t="n"/>
-      <c r="F28" s="8" t="n"/>
+      <c r="E28" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F28" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
       <c r="G28" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2083,7 +2312,7 @@
         <v>20</v>
       </c>
       <c r="L28" s="8" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="M28" s="8" t="n">
         <v/>
@@ -2092,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="O28" s="8" t="n">
-        <v/>
+        <v>8</v>
       </c>
       <c r="P28" s="8" t="inlineStr">
         <is>
@@ -2119,8 +2348,18 @@
           <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường UAT critical/important issue &lt;= 1</t>
         </is>
       </c>
-      <c r="E29" s="8" t="n"/>
-      <c r="F29" s="8" t="n"/>
+      <c r="E29" s="8" t="inlineStr">
+        <is>
+          <t>"- STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5
+- UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support"</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G29" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2145,7 +2384,7 @@
         <v>80</v>
       </c>
       <c r="L29" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M29" s="8" t="n">
         <v/>
@@ -2154,7 +2393,7 @@
         <v>17</v>
       </c>
       <c r="O29" s="8" t="n">
-        <v/>
+        <v>17</v>
       </c>
       <c r="P29" s="8" t="inlineStr">
         <is>
@@ -2162,7 +2401,23 @@
 (Dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q29" s="8" t="n"/>
+      <c r="Q29" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R29" s="8" t="inlineStr"/>
     </row>
     <row r="30">
@@ -2200,7 +2455,7 @@
         <v>100</v>
       </c>
       <c r="L30" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="n">
         <v>0</v>
@@ -2238,8 +2493,18 @@
           <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn dự án Smart Routing</t>
         </is>
       </c>
-      <c r="E31" s="8" t="n"/>
-      <c r="F31" s="8" t="n"/>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>"100% US/ sprint hoàn thành thỏa cả 2 điều kiện:
+- Có bằng chứng dev intergration test/ unittest ở mt dev
+- Tester test pass các US trên mt stg"</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>Taiga</t>
+        </is>
+      </c>
       <c r="G31" s="8" t="inlineStr">
         <is>
           <t>Tháng</t>
@@ -2264,24 +2529,40 @@
         <v>100</v>
       </c>
       <c r="L31" s="8" t="n">
-        <v/>
+        <v>100</v>
       </c>
       <c r="M31" s="8" t="n">
         <v/>
       </c>
       <c r="N31" s="8" t="n">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="O31" s="8" t="n">
-        <v/>
+        <v>107</v>
       </c>
       <c r="P31" s="8" t="inlineStr">
         <is>
-          <t>Dành 5,5 tiếng/ngày * 16.5 làm task.
+          <t>Dành 6,5 tiếng/ngày * 16.5 làm task.
 (dự kiến làm 16.5/23 ngày trong tháng 8) = 132h.</t>
         </is>
       </c>
-      <c r="Q31" s="8" t="n"/>
+      <c r="Q31" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/1Trjg-vxgyfk3nlXQ8n2Z_xT4ZT-vpWIWYRehWjInLQs/edit?usp=sharing
+</t>
+          </r>
+        </is>
+      </c>
       <c r="R31" s="8" t="inlineStr"/>
     </row>
     <row r="32">
@@ -2319,15 +2600,17 @@
         <v>100</v>
       </c>
       <c r="L32" s="9" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
       <c r="N32" s="9" t="n">
-        <v>116</v>
-      </c>
-      <c r="O32" s="9" t="inlineStr"/>
+        <v>132</v>
+      </c>
+      <c r="O32" s="9" t="n">
+        <v>132</v>
+      </c>
       <c r="P32" s="8" t="n">
         <v/>
       </c>
@@ -2338,16 +2621,551 @@
         <v/>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="2" t="n"/>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="2" t="n"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="2" t="n"/>
+      <c r="J33" s="2" t="n"/>
+      <c r="K33" s="2" t="n"/>
+      <c r="L33" s="2" t="n"/>
+      <c r="M33" s="2" t="n"/>
+      <c r="N33" s="2" t="n"/>
+      <c r="O33" s="2" t="n"/>
+      <c r="P33" s="2" t="n"/>
+      <c r="Q33" s="2" t="n"/>
+      <c r="R33" s="2" t="n"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Phạm Trọng Sáng</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>sangpt23</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="inlineStr">
+        <is>
+          <t>SVCNTS</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>Team FE</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="2" t="n"/>
+      <c r="J34" s="2" t="n"/>
+      <c r="K34" s="2" t="n"/>
+      <c r="L34" s="2" t="n"/>
+      <c r="M34" s="2" t="n"/>
+      <c r="N34" s="2" t="n"/>
+      <c r="O34" s="2" t="n"/>
+      <c r="P34" s="2" t="n"/>
+      <c r="Q34" s="2" t="n"/>
+      <c r="R34" s="2" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>KR phòng</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="inlineStr">
+        <is>
+          <t>KR team</t>
+        </is>
+      </c>
+      <c r="D35" s="5" t="inlineStr">
+        <is>
+          <t>KR cá nhân</t>
+        </is>
+      </c>
+      <c r="E35" s="5" t="inlineStr">
+        <is>
+          <t>Công thức tính</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>Nguồn dữ liệu</t>
+        </is>
+      </c>
+      <c r="G35" s="5" t="inlineStr">
+        <is>
+          <t>Định kỳ tính</t>
+        </is>
+      </c>
+      <c r="H35" s="5" t="inlineStr">
+        <is>
+          <t>Đơn vị tính</t>
+        </is>
+      </c>
+      <c r="I35" s="5" t="inlineStr">
+        <is>
+          <t>Điều kiện</t>
+        </is>
+      </c>
+      <c r="J35" s="5" t="inlineStr">
+        <is>
+          <t>Norm</t>
+        </is>
+      </c>
+      <c r="K35" s="6" t="inlineStr">
+        <is>
+          <t>% Trọng số chỉ tiêu</t>
+        </is>
+      </c>
+      <c r="L35" s="6" t="inlineStr">
+        <is>
+          <t>Kết quả</t>
+        </is>
+      </c>
+      <c r="M35" s="6" t="inlineStr">
+        <is>
+          <t>Tỷ lệ</t>
+        </is>
+      </c>
+      <c r="N35" s="6" t="inlineStr">
+        <is>
+          <t>Tổng thời gian dự kiến/ ước tính công việc (giờ)</t>
+        </is>
+      </c>
+      <c r="O35" s="4" t="inlineStr">
+        <is>
+          <t>Tổng thời gian thực hiện công việc thực tế (giờ)</t>
+        </is>
+      </c>
+      <c r="P35" s="6" t="inlineStr">
+        <is>
+          <t>Note dự kiến</t>
+        </is>
+      </c>
+      <c r="Q35" s="4" t="inlineStr">
+        <is>
+          <t>Note bằng chứng thực tế</t>
+        </is>
+      </c>
+      <c r="R35" s="7" t="inlineStr">
+        <is>
+          <t>QA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>kpi</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án HappyConnect, Dialo</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo chất lượng sản phẩm với số bug log trên các môi trường trong dự án Happy Connect, Dialo</t>
+        </is>
+      </c>
+      <c r="D36" s="8" t="inlineStr">
+        <is>
+          <t>Trên môi trường stg Trung bình số bugs được report trong mỗi tính năng khi review code/ thực hiện dev &lt;= 5 và trên môi trường Prod critical/important issue &lt;= 1</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>STG: số bug/tính năng khi review code/ thực hiện dev &lt;= 5.
+UAT: critical/important issue &lt;= 1
+** Không tính issue do nguyên nhân enhancement, wishlist, support</t>
+        </is>
+      </c>
+      <c r="F36" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J36" s="8" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N36" s="8" t="n">
+        <v>23</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" s="8" t="inlineStr">
+        <is>
+          <t>~4,5h/ngày làm task và fix bug 
+(dự kiến làm 23 ngày trong tháng 8)</t>
+        </is>
+      </c>
+      <c r="Q36" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng HappyConnect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R36" s="8" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh/ Seminar/ Cải tiến</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành đúng tiến độ và chất lượng các Công việc phát sinh</t>
+        </is>
+      </c>
+      <c r="D37" s="8" t="inlineStr">
+        <is>
+          <t>Có &gt;= 1 cải tiến để nâng cao chất lượng công việc trong dự án/ môi trường hoặc semninar/ công việc phát sinh được CBQL giao</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>CBQL/PM/SA confirm</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J37" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>16</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">~4h/tuần nghiên cứu và ứng dụng một số công nghệ khác để phát triển các chức năng </t>
+        </is>
+      </c>
+      <c r="Q37" s="8" t="n"/>
+      <c r="R37" s="8" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L38" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="M38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="inlineStr"/>
+      <c r="O38" s="9" t="inlineStr"/>
+      <c r="P38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="8" t="inlineStr">
+        <is>
+          <t>okr</t>
+        </is>
+      </c>
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>Nâng cao chất lượng hoàn thành phát triển và release 100% các tính năng trong dự án trung tâm HappyConnect, Dialo đúng thời hạn cam kết</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>Hoàn thành release các tính năng theo kế hoạch trong tháng 8</t>
+        </is>
+      </c>
+      <c r="D39" s="8" t="inlineStr">
+        <is>
+          <t>Đảm bảo 100% các tính năng trong sprint được giao hoàn thành đúng thời hạn (dự án Happy Connect, Dialo)</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>100% US/ sprint hoàn thành thỏa cả 2 điều kiện: Có bằng chứng dev intergration test/ unittest ở mt dev. Tester test pass các US trên mt stg</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>Mail</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>Tháng</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt/Không đạt</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>=</t>
+        </is>
+      </c>
+      <c r="J39" s="8" t="inlineStr">
+        <is>
+          <t>Đạt</t>
+        </is>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>100</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <v>50</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v/>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>104</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>41</v>
+      </c>
+      <c r="P39" s="8" t="n"/>
+      <c r="Q39" s="8" t="inlineStr">
+        <is>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OKR T8 Dialo : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18AWs-XcmlK_jLArRDy4Ylcfo5qZNjfjy/edit#gid=167033470
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='00FF0000', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">Bằng chứng OKR T8 Happy Connect : </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="&lt;openpyxl.styles.fonts.Font object&gt;&#10;Parameters:&#10;name='Arial', charset=None, family=None, b=False, i=False, strike=False, outline=None, shadow=None, condense=None, color=&lt;openpyxl.styles.colors.Color object&gt;&#10;Parameters:&#10;rgb='006699CC', indexed=None, auto=None, theme=None, tint=0.0, type='rgb', extend=None, sz=11.0, u=None, vertAlign=None, scheme=None"/>
+            </rPr>
+            <t xml:space="preserve">https://docs.google.com/spreadsheets/d/13xRiQniLrgAGfqB99ZV0Ihw5wJVlOBEs/edit#gid=167033470
+</t>
+          </r>
+        </is>
+      </c>
+      <c r="R39" s="8" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="B40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="D40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="F40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="H40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="L40" s="9" t="n">
+        <v>50</v>
+      </c>
+      <c r="M40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="n">
+        <v>143</v>
+      </c>
+      <c r="O40" s="9" t="n">
+        <v>43</v>
+      </c>
+      <c r="P40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v/>
+      </c>
+      <c r="R40" s="8" t="n">
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="A1:T1"/>
     <mergeCell ref="A31"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A39"/>
     <mergeCell ref="A15"/>
     <mergeCell ref="A7"/>
     <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="A23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
